--- a/raw_data/data_list.xlsx
+++ b/raw_data/data_list.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissachen/Documents/PhD/Project_metaanalysis/HostAssociatedMeta_sandbox/raw_data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A1E056-2127-2B47-9FFB-4E5555513645}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25540" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1080" yWindow="-15340" windowWidth="32820" windowHeight="13800" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="QIITA" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
     <sheet name="Templeton" sheetId="3" r:id="rId3"/>
     <sheet name="QIITA_full" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="739">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1792" uniqueCount="838">
   <si>
     <t>Title</t>
   </si>
@@ -2235,17 +2241,314 @@
     <t>disease</t>
   </si>
   <si>
-    <t>treatment</t>
-  </si>
-  <si>
-    <t>host_age</t>
+    <t>StudyID</t>
+  </si>
+  <si>
+    <t>study_title</t>
+  </si>
+  <si>
+    <t>Understanding Cultivar-Specificity and Soil Determinants of the Cannabis Microbiome </t>
+  </si>
+  <si>
+    <t>cannabis</t>
+  </si>
+  <si>
+    <t>enviro_sample_number</t>
+  </si>
+  <si>
+    <t>host_part</t>
+  </si>
+  <si>
+    <t>rhizosphere</t>
+  </si>
+  <si>
+    <t>enviro_type</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>The microbiome of uncontacted Amerindians</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>published</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>oral</t>
+  </si>
+  <si>
+    <t>fecal</t>
+  </si>
+  <si>
+    <t>Yanomami</t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>diesel strain</t>
+  </si>
+  <si>
+    <t>burmese strain</t>
+  </si>
+  <si>
+    <t>bucu strain</t>
+  </si>
+  <si>
+    <t>treatment_or_group</t>
+  </si>
+  <si>
+    <t>Changes in Microbial Ecology after Fecal Microbiota Transplantation for recurrent C. difficile Infection Affected by Underlying Inflammatory Bowel Disease</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>16S</t>
+  </si>
+  <si>
+    <t>IBD+C difficile</t>
+  </si>
+  <si>
+    <t>non-IBD + C difficile</t>
+  </si>
+  <si>
+    <t>donor</t>
+  </si>
+  <si>
+    <t>Cdifficile</t>
+  </si>
+  <si>
+    <t>The Fecal Microbial Community of Breast-fed Infants from Armenia and Georgia</t>
+  </si>
+  <si>
+    <t>infant</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>Georgia/Armenia; secretor or no secretor gene</t>
+  </si>
+  <si>
+    <t>Georgia, Armenia, adult</t>
+  </si>
+  <si>
+    <t>Diet Shapes the Gut Microbiome of Pigs During Nursing and Weaning.</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>pig</t>
+  </si>
+  <si>
+    <t>captive</t>
+  </si>
+  <si>
+    <t>Structure and Function of the Bacterial Root Microbiota in Wild and Domesticated Barley</t>
+  </si>
+  <si>
+    <t>barley</t>
+  </si>
+  <si>
+    <t>4 strains</t>
+  </si>
+  <si>
+    <t>Succession of microbial consortia in the developing infant gut microbiome</t>
+  </si>
+  <si>
+    <t>Linking Long-Term Dietary Patterns with Gut Microbial Enterotypes (COMBO)</t>
+  </si>
+  <si>
+    <t>diet</t>
+  </si>
+  <si>
+    <t>host_age_important</t>
+  </si>
+  <si>
+    <t>Comparative microbiome of Triatama infestans, vector of Chagas disease</t>
+  </si>
+  <si>
+    <t>Triatomine</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>house-caught</t>
+  </si>
+  <si>
+    <t>Euphorbia Plant Latex Is Inhabited by Diverse Microbial Communities</t>
+  </si>
+  <si>
+    <t>plant latex</t>
+  </si>
+  <si>
+    <t>latex</t>
+  </si>
+  <si>
+    <t>variety</t>
+  </si>
+  <si>
+    <t>many countries; 4 different types of enviro</t>
+  </si>
+  <si>
+    <t>Human lung microbiome in Cystic Fibrosis - 3D reconstruction</t>
+  </si>
+  <si>
+    <t>lung parenchyma</t>
+  </si>
+  <si>
+    <t>Characterizing the gut microbiome of the last population of undomesticated horses living in the wild, the Przewalski horse</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>domesticated</t>
+  </si>
+  <si>
+    <t>Composition of symbiotic bacteria as a predictor of survival in Panamanian golden frogs infected with Batrachochytrium dendrobatidis</t>
+  </si>
+  <si>
+    <t>amphibian</t>
+  </si>
+  <si>
+    <t>Panamanian golden frog</t>
+  </si>
+  <si>
+    <t>Bd alone</t>
+  </si>
+  <si>
+    <t>Chryseo.indo</t>
+  </si>
+  <si>
+    <t>Steno.malto</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Widespread colonization of the lung by Tropheryma whipplei in HIV infection UPenn</t>
+  </si>
+  <si>
+    <t>HIV</t>
+  </si>
+  <si>
+    <t>lung</t>
+  </si>
+  <si>
+    <t>mouth</t>
+  </si>
+  <si>
+    <t>grapevine</t>
+  </si>
+  <si>
+    <t>winery, 4 varieties</t>
+  </si>
+  <si>
+    <t>plant ocrpus</t>
+  </si>
+  <si>
+    <t>Diversity, host affinity and ecology of foliar endophytic microbes in Amazonian Peru </t>
+  </si>
+  <si>
+    <t>leaf</t>
+  </si>
+  <si>
+    <t>Protium subserratum</t>
+  </si>
+  <si>
+    <t>Pitcher plant Darlingtonia california microbe intervention and analysis</t>
+  </si>
+  <si>
+    <t>pitcher plant</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>Antibiotics, birth mode, and diet shape microbiome maturation during early life</t>
+  </si>
+  <si>
+    <t>mucus</t>
+  </si>
+  <si>
+    <t>Gut-Resident Lactobacillus Abundance Associates with IDO1 Inhibition and Th17 Dynamics in SIV-Infected Macaques</t>
+  </si>
+  <si>
+    <t>different ethnicities present</t>
+  </si>
+  <si>
+    <t>african green monkey</t>
+  </si>
+  <si>
+    <t>Rhesus macaques</t>
+  </si>
+  <si>
+    <t>Most of the Dominant Members of Amphibian Skin Bacterial Communities Can Be Readily Cultured</t>
+  </si>
+  <si>
+    <t>newt</t>
+  </si>
+  <si>
+    <t>american toad</t>
+  </si>
+  <si>
+    <t>bullfrog</t>
+  </si>
+  <si>
+    <t>peeper</t>
+  </si>
+  <si>
+    <t>Baleen whales host a unique gut microbiome with similarities to both carnivores and herbivores</t>
+  </si>
+  <si>
+    <t>16D, metagenomic</t>
+  </si>
+  <si>
+    <t>baleen whale</t>
+  </si>
+  <si>
+    <t>Development of the chick microbiome: How early exposure influences future microbial diversity</t>
+  </si>
+  <si>
+    <t>chick</t>
+  </si>
+  <si>
+    <t>cecal</t>
+  </si>
+  <si>
+    <t>control; either vaccine or not</t>
+  </si>
+  <si>
+    <t>PrimaLac; either vaccine or not</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2524,96 +2827,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2704,6 +2917,42 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2724,25 +2973,87 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:J98" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A1:J98"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J98" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:J98" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="Study ID" dataDxfId="11"/>
-    <tableColumn id="5" name="EBI accession" dataDxfId="0"/>
-    <tableColumn id="2" name="Title" dataDxfId="10"/>
-    <tableColumn id="10" name="IncludeTemp" dataDxfId="1"/>
-    <tableColumn id="9" name="Include" dataDxfId="2"/>
-    <tableColumn id="3" name="Principal investigator" dataDxfId="9"/>
-    <tableColumn id="4" name="DOI" dataDxfId="8"/>
-    <tableColumn id="6" name="Read length (bp)" dataDxfId="7"/>
-    <tableColumn id="7" name="Number of samples" dataDxfId="6"/>
-    <tableColumn id="8" name="Number of samples by environment" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Study ID" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="EBI accession" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Title" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="IncludeTemp" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Include" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Principal investigator" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="DOI" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Read length (bp)" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Number of samples" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Number of samples by environment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3069,14 +3380,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView topLeftCell="A269" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="29.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="141.5" bestFit="1" customWidth="1"/>
@@ -3096,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17">
+    <row r="2" spans="1:4" ht="18">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -3110,7 +3421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="17">
+    <row r="3" spans="1:4" ht="18">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -3124,7 +3435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17">
+    <row r="4" spans="1:4" ht="18">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3138,7 +3449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="17">
+    <row r="5" spans="1:4" ht="18">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -3152,7 +3463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="17">
+    <row r="6" spans="1:4" ht="18">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -3166,7 +3477,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="17">
+    <row r="7" spans="1:4" ht="18">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -3180,7 +3491,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="17">
+    <row r="8" spans="1:4" ht="18">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -3194,7 +3505,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="17">
+    <row r="9" spans="1:4" ht="18">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
@@ -3208,7 +3519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="17">
+    <row r="10" spans="1:4" ht="18">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3222,7 +3533,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="17">
+    <row r="11" spans="1:4" ht="18">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -3236,7 +3547,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17">
+    <row r="12" spans="1:4" ht="18">
       <c r="A12" s="1" t="s">
         <v>25</v>
       </c>
@@ -3250,7 +3561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="17">
+    <row r="13" spans="1:4" ht="18">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
@@ -3264,7 +3575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="17">
+    <row r="14" spans="1:4" ht="18">
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
@@ -3278,7 +3589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17">
+    <row r="15" spans="1:4" ht="18">
       <c r="A15" s="1" t="s">
         <v>31</v>
       </c>
@@ -3292,7 +3603,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="17">
+    <row r="16" spans="1:4" ht="18">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -3306,7 +3617,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="17">
+    <row r="17" spans="1:4" ht="18">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3320,7 +3631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17">
+    <row r="18" spans="1:4" ht="18">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -3334,7 +3645,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="17">
+    <row r="19" spans="1:4" ht="18">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -3348,7 +3659,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="17">
+    <row r="20" spans="1:4" ht="18">
       <c r="A20" s="1" t="s">
         <v>41</v>
       </c>
@@ -3362,7 +3673,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="17">
+    <row r="21" spans="1:4" ht="18">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -3376,7 +3687,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="17">
+    <row r="22" spans="1:4" ht="18">
       <c r="A22" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,7 +3701,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="17">
+    <row r="23" spans="1:4" ht="18">
       <c r="A23" s="1" t="s">
         <v>53</v>
       </c>
@@ -3404,7 +3715,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="17">
+    <row r="24" spans="1:4" ht="18">
       <c r="A24" s="1" t="s">
         <v>54</v>
       </c>
@@ -3418,7 +3729,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17">
+    <row r="25" spans="1:4" ht="18">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -3432,7 +3743,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="17">
+    <row r="26" spans="1:4" ht="18">
       <c r="A26" s="1" t="s">
         <v>58</v>
       </c>
@@ -3446,7 +3757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="17">
+    <row r="27" spans="1:4" ht="18">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -3460,7 +3771,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="17">
+    <row r="28" spans="1:4" ht="18">
       <c r="A28" s="1" t="s">
         <v>62</v>
       </c>
@@ -3474,7 +3785,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="17">
+    <row r="29" spans="1:4" ht="18">
       <c r="A29" s="1" t="s">
         <v>64</v>
       </c>
@@ -3488,7 +3799,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="17">
+    <row r="30" spans="1:4" ht="18">
       <c r="A30" s="1" t="s">
         <v>65</v>
       </c>
@@ -3502,7 +3813,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="17">
+    <row r="31" spans="1:4" ht="18">
       <c r="A31" s="1" t="s">
         <v>67</v>
       </c>
@@ -3516,7 +3827,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="17">
+    <row r="32" spans="1:4" ht="18">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -3530,7 +3841,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="17">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="1" t="s">
         <v>53</v>
       </c>
@@ -3544,7 +3855,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="17">
+    <row r="34" spans="1:4" ht="18">
       <c r="A34" s="1" t="s">
         <v>54</v>
       </c>
@@ -3558,7 +3869,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="17">
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -3572,7 +3883,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="17">
+    <row r="36" spans="1:4" ht="18">
       <c r="A36" s="1" t="s">
         <v>58</v>
       </c>
@@ -3586,7 +3897,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="17">
+    <row r="37" spans="1:4" ht="18">
       <c r="A37" s="1" t="s">
         <v>60</v>
       </c>
@@ -3600,7 +3911,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="17">
+    <row r="38" spans="1:4" ht="18">
       <c r="A38" s="1" t="s">
         <v>62</v>
       </c>
@@ -3614,7 +3925,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="17">
+    <row r="39" spans="1:4" ht="18">
       <c r="A39" s="1" t="s">
         <v>64</v>
       </c>
@@ -3628,7 +3939,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="17">
+    <row r="40" spans="1:4" ht="18">
       <c r="A40" s="1" t="s">
         <v>65</v>
       </c>
@@ -3642,7 +3953,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="17">
+    <row r="41" spans="1:4" ht="18">
       <c r="A41" s="1" t="s">
         <v>67</v>
       </c>
@@ -3668,14 +3979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -3703,8 +4014,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -3717,14 +4028,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AC1001"/>
   <sheetViews>
     <sheetView topLeftCell="A87" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.5" style="6" customWidth="1"/>
     <col min="2" max="2" width="15" style="6" customWidth="1"/>
@@ -3744,7 +4055,7 @@
     <col min="21" max="16384" width="14.5" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="24">
+    <row r="1" spans="1:27" ht="28">
       <c r="A1" s="9" t="s">
         <v>71</v>
       </c>
@@ -3793,7 +4104,7 @@
       <c r="Z1" s="12"/>
       <c r="AA1" s="12"/>
     </row>
-    <row r="2" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="2" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A2" s="13">
         <v>550</v>
       </c>
@@ -3842,7 +4153,7 @@
       <c r="Z2" s="17"/>
       <c r="AA2" s="17"/>
     </row>
-    <row r="3" spans="1:27" s="20" customFormat="1">
+    <row r="3" spans="1:27" s="20" customFormat="1" ht="17">
       <c r="A3" s="13">
         <v>632</v>
       </c>
@@ -3891,7 +4202,7 @@
       <c r="Z3" s="17"/>
       <c r="AA3" s="17"/>
     </row>
-    <row r="4" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="4" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A4" s="13">
         <v>638</v>
       </c>
@@ -3940,7 +4251,7 @@
       <c r="Z4" s="17"/>
       <c r="AA4" s="17"/>
     </row>
-    <row r="5" spans="1:27" s="20" customFormat="1">
+    <row r="5" spans="1:27" s="20" customFormat="1" ht="34">
       <c r="A5" s="13">
         <v>659</v>
       </c>
@@ -3989,7 +4300,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
     </row>
-    <row r="6" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="6" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A6" s="13">
         <v>662</v>
       </c>
@@ -4038,7 +4349,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
     </row>
-    <row r="7" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="7" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A7" s="13">
         <v>678</v>
       </c>
@@ -4087,7 +4398,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
     </row>
-    <row r="8" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="8" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A8" s="13">
         <v>713</v>
       </c>
@@ -4136,7 +4447,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
     </row>
-    <row r="9" spans="1:27" s="20" customFormat="1" ht="96">
+    <row r="9" spans="1:27" s="20" customFormat="1" ht="112">
       <c r="A9" s="13">
         <v>722</v>
       </c>
@@ -4185,7 +4496,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
     </row>
-    <row r="10" spans="1:27" s="20" customFormat="1">
+    <row r="10" spans="1:27" s="20" customFormat="1" ht="17">
       <c r="A10" s="13">
         <v>723</v>
       </c>
@@ -4234,7 +4545,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
     </row>
-    <row r="11" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="11" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A11" s="13">
         <v>755</v>
       </c>
@@ -4283,7 +4594,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
     </row>
-    <row r="12" spans="1:27" s="20" customFormat="1">
+    <row r="12" spans="1:27" s="20" customFormat="1" ht="17">
       <c r="A12" s="13">
         <v>776</v>
       </c>
@@ -4332,7 +4643,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
     </row>
-    <row r="13" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="13" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A13" s="13">
         <v>804</v>
       </c>
@@ -4381,7 +4692,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
     </row>
-    <row r="14" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="14" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A14" s="13">
         <v>805</v>
       </c>
@@ -4430,7 +4741,7 @@
       <c r="Z14" s="17"/>
       <c r="AA14" s="17"/>
     </row>
-    <row r="15" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="15" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A15" s="13">
         <v>807</v>
       </c>
@@ -4479,7 +4790,7 @@
       <c r="Z15" s="17"/>
       <c r="AA15" s="17"/>
     </row>
-    <row r="16" spans="1:27" s="20" customFormat="1">
+    <row r="16" spans="1:27" s="20" customFormat="1" ht="17">
       <c r="A16" s="13">
         <v>808</v>
       </c>
@@ -4528,7 +4839,7 @@
       <c r="Z16" s="17"/>
       <c r="AA16" s="17"/>
     </row>
-    <row r="17" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="17" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A17" s="13">
         <v>809</v>
       </c>
@@ -4577,7 +4888,7 @@
       <c r="Z17" s="17"/>
       <c r="AA17" s="17"/>
     </row>
-    <row r="18" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="18" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A18" s="13">
         <v>810</v>
       </c>
@@ -4626,7 +4937,7 @@
       <c r="Z18" s="17"/>
       <c r="AA18" s="17"/>
     </row>
-    <row r="19" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="19" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A19" s="13">
         <v>829</v>
       </c>
@@ -4675,7 +4986,7 @@
       <c r="Z19" s="17"/>
       <c r="AA19" s="17"/>
     </row>
-    <row r="20" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="20" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A20" s="13">
         <v>846</v>
       </c>
@@ -4724,7 +5035,7 @@
       <c r="Z20" s="17"/>
       <c r="AA20" s="17"/>
     </row>
-    <row r="21" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="21" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A21" s="13">
         <v>861</v>
       </c>
@@ -4871,7 +5182,7 @@
       <c r="Z23" s="17"/>
       <c r="AA23" s="17"/>
     </row>
-    <row r="24" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="24" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A24" s="13">
         <v>894</v>
       </c>
@@ -4920,7 +5231,7 @@
       <c r="Z24" s="17"/>
       <c r="AA24" s="17"/>
     </row>
-    <row r="25" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="25" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A25" s="13">
         <v>895</v>
       </c>
@@ -4969,7 +5280,7 @@
       <c r="Z25" s="17"/>
       <c r="AA25" s="17"/>
     </row>
-    <row r="26" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="26" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A26" s="13">
         <v>905</v>
       </c>
@@ -5018,7 +5329,7 @@
       <c r="Z26" s="17"/>
       <c r="AA26" s="17"/>
     </row>
-    <row r="27" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="27" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A27" s="13">
         <v>910</v>
       </c>
@@ -5067,7 +5378,7 @@
       <c r="Z27" s="17"/>
       <c r="AA27" s="17"/>
     </row>
-    <row r="28" spans="1:27" s="20" customFormat="1" ht="48">
+    <row r="28" spans="1:27" s="20" customFormat="1" ht="56">
       <c r="A28" s="13">
         <v>925</v>
       </c>
@@ -5165,7 +5476,7 @@
       <c r="Z29" s="17"/>
       <c r="AA29" s="17"/>
     </row>
-    <row r="30" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="30" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A30" s="13">
         <v>940</v>
       </c>
@@ -5214,7 +5525,7 @@
       <c r="Z30" s="17"/>
       <c r="AA30" s="17"/>
     </row>
-    <row r="31" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="31" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A31" s="13">
         <v>945</v>
       </c>
@@ -5312,7 +5623,7 @@
       <c r="Z32" s="17"/>
       <c r="AA32" s="17"/>
     </row>
-    <row r="33" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="33" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A33" s="13">
         <v>963</v>
       </c>
@@ -5410,7 +5721,7 @@
       <c r="Z34" s="17"/>
       <c r="AA34" s="17"/>
     </row>
-    <row r="35" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="35" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A35" s="13">
         <v>1001</v>
       </c>
@@ -5459,7 +5770,7 @@
       <c r="Z35" s="17"/>
       <c r="AA35" s="17"/>
     </row>
-    <row r="36" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="36" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A36" s="13">
         <v>1024</v>
       </c>
@@ -5508,7 +5819,7 @@
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
     </row>
-    <row r="37" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="37" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A37" s="13">
         <v>1030</v>
       </c>
@@ -5606,7 +5917,7 @@
       <c r="Z38" s="17"/>
       <c r="AA38" s="17"/>
     </row>
-    <row r="39" spans="1:27" s="20" customFormat="1">
+    <row r="39" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A39" s="13">
         <v>1033</v>
       </c>
@@ -5704,7 +6015,7 @@
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
     </row>
-    <row r="41" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="41" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A41" s="13">
         <v>1035</v>
       </c>
@@ -5753,7 +6064,7 @@
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
     </row>
-    <row r="42" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="42" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A42" s="13">
         <v>1036</v>
       </c>
@@ -5851,7 +6162,7 @@
       <c r="Z43" s="17"/>
       <c r="AA43" s="17"/>
     </row>
-    <row r="44" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="44" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A44" s="13">
         <v>1038</v>
       </c>
@@ -5900,7 +6211,7 @@
       <c r="Z44" s="17"/>
       <c r="AA44" s="17"/>
     </row>
-    <row r="45" spans="1:27" s="20" customFormat="1" ht="72">
+    <row r="45" spans="1:27" s="20" customFormat="1" ht="84">
       <c r="A45" s="13">
         <v>1039</v>
       </c>
@@ -6243,7 +6554,7 @@
       <c r="Z51" s="17"/>
       <c r="AA51" s="17"/>
     </row>
-    <row r="52" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="52" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A52" s="13">
         <v>1222</v>
       </c>
@@ -6292,7 +6603,7 @@
       <c r="Z52" s="17"/>
       <c r="AA52" s="17"/>
     </row>
-    <row r="53" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="53" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A53" s="13">
         <v>1235</v>
       </c>
@@ -6390,7 +6701,7 @@
       <c r="Z54" s="17"/>
       <c r="AA54" s="17"/>
     </row>
-    <row r="55" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="55" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A55" s="13">
         <v>1242</v>
       </c>
@@ -6439,7 +6750,7 @@
       <c r="Z55" s="17"/>
       <c r="AA55" s="17"/>
     </row>
-    <row r="56" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="56" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A56" s="13">
         <v>1288</v>
       </c>
@@ -6537,7 +6848,7 @@
       <c r="Z57" s="17"/>
       <c r="AA57" s="17"/>
     </row>
-    <row r="58" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="58" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A58" s="13">
         <v>1453</v>
       </c>
@@ -6586,7 +6897,7 @@
       <c r="Z58" s="17"/>
       <c r="AA58" s="17"/>
     </row>
-    <row r="59" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="59" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A59" s="13">
         <v>1481</v>
       </c>
@@ -6635,7 +6946,7 @@
       <c r="Z59" s="17"/>
       <c r="AA59" s="17"/>
     </row>
-    <row r="60" spans="1:27" s="20" customFormat="1" ht="48">
+    <row r="60" spans="1:27" s="20" customFormat="1" ht="70">
       <c r="A60" s="13">
         <v>1521</v>
       </c>
@@ -6684,7 +6995,7 @@
       <c r="Z60" s="17"/>
       <c r="AA60" s="17"/>
     </row>
-    <row r="61" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="61" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A61" s="13">
         <v>1526</v>
       </c>
@@ -6733,7 +7044,7 @@
       <c r="Z61" s="17"/>
       <c r="AA61" s="17"/>
     </row>
-    <row r="62" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="62" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A62" s="13">
         <v>1578</v>
       </c>
@@ -6782,7 +7093,7 @@
       <c r="Z62" s="17"/>
       <c r="AA62" s="17"/>
     </row>
-    <row r="63" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="63" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A63" s="13">
         <v>1579</v>
       </c>
@@ -6831,7 +7142,7 @@
       <c r="Z63" s="17"/>
       <c r="AA63" s="17"/>
     </row>
-    <row r="64" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="64" spans="1:27" s="20" customFormat="1" ht="56">
       <c r="A64" s="13">
         <v>1580</v>
       </c>
@@ -6880,7 +7191,7 @@
       <c r="Z64" s="17"/>
       <c r="AA64" s="17"/>
     </row>
-    <row r="65" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="65" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A65" s="13">
         <v>1621</v>
       </c>
@@ -6929,7 +7240,7 @@
       <c r="Z65" s="17"/>
       <c r="AA65" s="17"/>
     </row>
-    <row r="66" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="66" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A66" s="13">
         <v>1622</v>
       </c>
@@ -6978,7 +7289,7 @@
       <c r="Z66" s="17"/>
       <c r="AA66" s="17"/>
     </row>
-    <row r="67" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="67" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A67" s="13">
         <v>1627</v>
       </c>
@@ -7027,7 +7338,7 @@
       <c r="Z67" s="17"/>
       <c r="AA67" s="17"/>
     </row>
-    <row r="68" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="68" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A68" s="13">
         <v>1632</v>
       </c>
@@ -7076,7 +7387,7 @@
       <c r="Z68" s="17"/>
       <c r="AA68" s="17"/>
     </row>
-    <row r="69" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="69" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A69" s="13">
         <v>1642</v>
       </c>
@@ -7223,7 +7534,7 @@
       <c r="Z71" s="17"/>
       <c r="AA71" s="17"/>
     </row>
-    <row r="72" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="72" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A72" s="13">
         <v>1674</v>
       </c>
@@ -7321,7 +7632,7 @@
       <c r="Z73" s="17"/>
       <c r="AA73" s="17"/>
     </row>
-    <row r="74" spans="1:27" s="20" customFormat="1">
+    <row r="74" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A74" s="13">
         <v>1694</v>
       </c>
@@ -7370,7 +7681,7 @@
       <c r="Z74" s="17"/>
       <c r="AA74" s="17"/>
     </row>
-    <row r="75" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="75" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A75" s="13">
         <v>1696</v>
       </c>
@@ -7468,7 +7779,7 @@
       <c r="Z76" s="17"/>
       <c r="AA76" s="17"/>
     </row>
-    <row r="77" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="77" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A77" s="13">
         <v>1711</v>
       </c>
@@ -7566,7 +7877,7 @@
       <c r="Z78" s="17"/>
       <c r="AA78" s="17"/>
     </row>
-    <row r="79" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="79" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A79" s="13">
         <v>1714</v>
       </c>
@@ -7713,7 +8024,7 @@
       <c r="Z81" s="17"/>
       <c r="AA81" s="17"/>
     </row>
-    <row r="82" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="82" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A82" s="13">
         <v>1717</v>
       </c>
@@ -7762,7 +8073,7 @@
       <c r="Z82" s="17"/>
       <c r="AA82" s="17"/>
     </row>
-    <row r="83" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="83" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A83" s="13">
         <v>1721</v>
       </c>
@@ -7909,7 +8220,7 @@
       <c r="Z85" s="17"/>
       <c r="AA85" s="17"/>
     </row>
-    <row r="86" spans="1:27" s="20" customFormat="1" ht="84">
+    <row r="86" spans="1:27" s="20" customFormat="1" ht="98">
       <c r="A86" s="13">
         <v>1747</v>
       </c>
@@ -7958,7 +8269,7 @@
       <c r="Z86" s="17"/>
       <c r="AA86" s="17"/>
     </row>
-    <row r="87" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="87" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A87" s="13">
         <v>1748</v>
       </c>
@@ -8007,7 +8318,7 @@
       <c r="Z87" s="17"/>
       <c r="AA87" s="17"/>
     </row>
-    <row r="88" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="88" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A88" s="13">
         <v>1773</v>
       </c>
@@ -8056,7 +8367,7 @@
       <c r="Z88" s="17"/>
       <c r="AA88" s="17"/>
     </row>
-    <row r="89" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="89" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A89" s="13">
         <v>1774</v>
       </c>
@@ -8154,7 +8465,7 @@
       <c r="Z90" s="17"/>
       <c r="AA90" s="17"/>
     </row>
-    <row r="91" spans="1:27" s="20" customFormat="1" ht="96">
+    <row r="91" spans="1:27" s="20" customFormat="1" ht="112">
       <c r="A91" s="13">
         <v>1883</v>
       </c>
@@ -8252,7 +8563,7 @@
       <c r="Z92" s="17"/>
       <c r="AA92" s="17"/>
     </row>
-    <row r="93" spans="1:27" s="20" customFormat="1" ht="36">
+    <row r="93" spans="1:27" s="20" customFormat="1" ht="42">
       <c r="A93" s="13">
         <v>2182</v>
       </c>
@@ -8301,7 +8612,7 @@
       <c r="Z93" s="17"/>
       <c r="AA93" s="17"/>
     </row>
-    <row r="94" spans="1:27" s="20" customFormat="1" ht="48">
+    <row r="94" spans="1:27" s="20" customFormat="1" ht="56">
       <c r="A94" s="13">
         <v>2192</v>
       </c>
@@ -8350,7 +8661,7 @@
       <c r="Z94" s="17"/>
       <c r="AA94" s="17"/>
     </row>
-    <row r="95" spans="1:27" s="20" customFormat="1" ht="24">
+    <row r="95" spans="1:27" s="20" customFormat="1" ht="28">
       <c r="A95" s="13">
         <v>2229</v>
       </c>
@@ -8448,7 +8759,7 @@
       <c r="Z96" s="17"/>
       <c r="AA96" s="17"/>
     </row>
-    <row r="97" spans="1:29" s="20" customFormat="1" ht="24">
+    <row r="97" spans="1:29" s="20" customFormat="1" ht="28">
       <c r="A97" s="13">
         <v>2338</v>
       </c>
@@ -8497,7 +8808,7 @@
       <c r="Z97" s="17"/>
       <c r="AA97" s="17"/>
     </row>
-    <row r="98" spans="1:29" s="20" customFormat="1" ht="36">
+    <row r="98" spans="1:29" s="20" customFormat="1" ht="42">
       <c r="A98" s="13">
         <v>2382</v>
       </c>
@@ -34745,1310 +35056,4524 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I254"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:Q281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="19.1640625" customWidth="1"/>
+    <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:17">
       <c r="A1" t="s">
         <v>684</v>
       </c>
       <c r="B1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C1" t="s">
+        <v>738</v>
+      </c>
+      <c r="D1" t="s">
         <v>731</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>732</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>742</v>
+      </c>
+      <c r="G1" t="s">
         <v>733</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>741</v>
+      </c>
+      <c r="I1" t="s">
+        <v>744</v>
+      </c>
+      <c r="J1" t="s">
         <v>735</v>
       </c>
-      <c r="F1" t="s">
+      <c r="K1" t="s">
         <v>734</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>736</v>
       </c>
-      <c r="H1" t="s">
-        <v>737</v>
-      </c>
-      <c r="I1" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="M1" t="s">
+        <v>759</v>
+      </c>
+      <c r="N1" t="s">
+        <v>783</v>
+      </c>
+      <c r="O1" t="s">
+        <v>749</v>
+      </c>
+      <c r="P1" t="s">
+        <v>750</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2">
+        <v>1001</v>
+      </c>
+      <c r="C2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D2" t="s">
+        <v>740</v>
+      </c>
+      <c r="E2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" t="s">
+        <v>743</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>745</v>
+      </c>
+      <c r="J2" t="s">
+        <v>475</v>
+      </c>
+      <c r="K2" t="s">
+        <v>746</v>
+      </c>
+      <c r="L2" t="s">
+        <v>475</v>
+      </c>
+      <c r="M2" t="s">
+        <v>756</v>
+      </c>
+      <c r="N2" t="s">
+        <v>746</v>
+      </c>
+      <c r="O2" t="s">
+        <v>475</v>
+      </c>
+      <c r="P2" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B3">
+        <v>1001</v>
+      </c>
+      <c r="C3" t="s">
+        <v>739</v>
+      </c>
+      <c r="D3" t="s">
+        <v>740</v>
+      </c>
+      <c r="E3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" t="s">
+        <v>743</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3" t="s">
+        <v>745</v>
+      </c>
+      <c r="J3" t="s">
+        <v>475</v>
+      </c>
+      <c r="K3" t="s">
+        <v>746</v>
+      </c>
+      <c r="L3" t="s">
+        <v>475</v>
+      </c>
+      <c r="M3" t="s">
+        <v>757</v>
+      </c>
+      <c r="N3" t="s">
+        <v>746</v>
+      </c>
+      <c r="O3" t="s">
+        <v>475</v>
+      </c>
+      <c r="P3" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>691</v>
+      </c>
+      <c r="B4">
+        <v>1001</v>
+      </c>
+      <c r="C4" t="s">
+        <v>739</v>
+      </c>
+      <c r="D4" t="s">
+        <v>740</v>
+      </c>
+      <c r="E4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4" t="s">
+        <v>745</v>
+      </c>
+      <c r="J4" t="s">
+        <v>475</v>
+      </c>
+      <c r="K4" t="s">
+        <v>746</v>
+      </c>
+      <c r="L4" t="s">
+        <v>475</v>
+      </c>
+      <c r="M4" t="s">
+        <v>758</v>
+      </c>
+      <c r="N4" t="s">
+        <v>746</v>
+      </c>
+      <c r="O4" t="s">
+        <v>475</v>
+      </c>
+      <c r="P4" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
+        <v>691</v>
+      </c>
+      <c r="B5">
+        <v>1001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>739</v>
+      </c>
+      <c r="D5" t="s">
+        <v>740</v>
+      </c>
+      <c r="E5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5" t="s">
+        <v>745</v>
+      </c>
+      <c r="J5" t="s">
+        <v>475</v>
+      </c>
+      <c r="K5" t="s">
+        <v>746</v>
+      </c>
+      <c r="L5" t="s">
+        <v>475</v>
+      </c>
+      <c r="M5" t="s">
+        <v>756</v>
+      </c>
+      <c r="N5" t="s">
+        <v>746</v>
+      </c>
+      <c r="O5" t="s">
+        <v>475</v>
+      </c>
+      <c r="P5" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>691</v>
+      </c>
+      <c r="B6">
+        <v>1001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>739</v>
+      </c>
+      <c r="D6" t="s">
+        <v>740</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>755</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6" t="s">
+        <v>745</v>
+      </c>
+      <c r="J6" t="s">
+        <v>475</v>
+      </c>
+      <c r="K6" t="s">
+        <v>746</v>
+      </c>
+      <c r="L6" t="s">
+        <v>475</v>
+      </c>
+      <c r="M6" t="s">
+        <v>757</v>
+      </c>
+      <c r="N6" t="s">
+        <v>746</v>
+      </c>
+      <c r="O6" t="s">
+        <v>475</v>
+      </c>
+      <c r="P6" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>691</v>
+      </c>
+      <c r="B7">
+        <v>1001</v>
+      </c>
+      <c r="C7" t="s">
+        <v>739</v>
+      </c>
+      <c r="D7" t="s">
+        <v>740</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>755</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>745</v>
+      </c>
+      <c r="J7" t="s">
+        <v>475</v>
+      </c>
+      <c r="K7" t="s">
+        <v>746</v>
+      </c>
+      <c r="L7" t="s">
+        <v>475</v>
+      </c>
+      <c r="M7" t="s">
+        <v>758</v>
+      </c>
+      <c r="N7" t="s">
+        <v>746</v>
+      </c>
+      <c r="O7" t="s">
+        <v>475</v>
+      </c>
+      <c r="P7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+      <c r="B8">
+        <v>10052</v>
+      </c>
+      <c r="C8" t="s">
+        <v>747</v>
+      </c>
+      <c r="D8" t="s">
+        <v>753</v>
+      </c>
+      <c r="E8" t="s">
+        <v>748</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
+        <v>746</v>
+      </c>
+      <c r="I8" t="s">
+        <v>746</v>
+      </c>
+      <c r="J8" t="s">
+        <v>475</v>
+      </c>
+      <c r="K8" t="s">
+        <v>754</v>
+      </c>
+      <c r="L8" t="s">
+        <v>475</v>
+      </c>
+      <c r="M8" t="s">
+        <v>746</v>
+      </c>
+      <c r="N8" t="s">
+        <v>474</v>
+      </c>
+      <c r="O8" t="s">
+        <v>474</v>
+      </c>
+      <c r="P8" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>477</v>
+      </c>
+      <c r="B9">
+        <v>10052</v>
+      </c>
+      <c r="C9" t="s">
+        <v>747</v>
+      </c>
+      <c r="D9" t="s">
+        <v>753</v>
+      </c>
+      <c r="E9" t="s">
+        <v>748</v>
+      </c>
+      <c r="F9" t="s">
+        <v>751</v>
+      </c>
+      <c r="G9">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>746</v>
+      </c>
+      <c r="I9" t="s">
+        <v>746</v>
+      </c>
+      <c r="J9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K9" t="s">
+        <v>754</v>
+      </c>
+      <c r="L9" t="s">
+        <v>475</v>
+      </c>
+      <c r="M9" t="s">
+        <v>746</v>
+      </c>
+      <c r="N9" t="s">
+        <v>474</v>
+      </c>
+      <c r="O9" t="s">
+        <v>474</v>
+      </c>
+      <c r="P9" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>477</v>
+      </c>
+      <c r="B10">
+        <v>10052</v>
+      </c>
+      <c r="C10" t="s">
+        <v>747</v>
+      </c>
+      <c r="D10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E10" t="s">
+        <v>748</v>
+      </c>
+      <c r="F10" t="s">
+        <v>752</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>746</v>
+      </c>
+      <c r="I10" t="s">
+        <v>746</v>
+      </c>
+      <c r="J10" t="s">
+        <v>475</v>
+      </c>
+      <c r="K10" t="s">
+        <v>754</v>
+      </c>
+      <c r="L10" t="s">
+        <v>475</v>
+      </c>
+      <c r="M10" t="s">
+        <v>746</v>
+      </c>
+      <c r="N10" t="s">
+        <v>474</v>
+      </c>
+      <c r="O10" t="s">
+        <v>474</v>
+      </c>
+      <c r="P10" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+      <c r="B11">
+        <v>10057</v>
+      </c>
+      <c r="C11" t="s">
+        <v>760</v>
+      </c>
+      <c r="D11" t="s">
+        <v>766</v>
+      </c>
+      <c r="E11" t="s">
+        <v>748</v>
+      </c>
+      <c r="F11" t="s">
+        <v>752</v>
+      </c>
+      <c r="G11">
+        <v>33</v>
+      </c>
+      <c r="H11" t="s">
+        <v>746</v>
+      </c>
+      <c r="I11" t="s">
+        <v>746</v>
+      </c>
+      <c r="J11" t="s">
+        <v>474</v>
+      </c>
+      <c r="K11" t="s">
+        <v>746</v>
+      </c>
+      <c r="L11" t="s">
+        <v>474</v>
+      </c>
+      <c r="M11" t="s">
+        <v>763</v>
+      </c>
+      <c r="N11" t="s">
+        <v>746</v>
+      </c>
+      <c r="O11" t="s">
+        <v>474</v>
+      </c>
+      <c r="P11" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
+        <v>478</v>
+      </c>
+      <c r="B12">
+        <v>10057</v>
+      </c>
+      <c r="C12" t="s">
+        <v>760</v>
+      </c>
+      <c r="D12" t="s">
+        <v>766</v>
+      </c>
+      <c r="E12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F12" t="s">
+        <v>752</v>
+      </c>
+      <c r="G12">
+        <v>70</v>
+      </c>
+      <c r="H12" t="s">
+        <v>746</v>
+      </c>
+      <c r="I12" t="s">
+        <v>746</v>
+      </c>
+      <c r="J12" t="s">
+        <v>474</v>
+      </c>
+      <c r="K12" t="s">
+        <v>746</v>
+      </c>
+      <c r="L12" t="s">
+        <v>474</v>
+      </c>
+      <c r="M12" t="s">
+        <v>764</v>
+      </c>
+      <c r="N12" t="s">
+        <v>746</v>
+      </c>
+      <c r="O12" t="s">
+        <v>474</v>
+      </c>
+      <c r="P12" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13">
+        <v>10057</v>
+      </c>
+      <c r="C13" t="s">
+        <v>760</v>
+      </c>
+      <c r="D13" t="s">
+        <v>748</v>
+      </c>
+      <c r="E13" t="s">
+        <v>748</v>
+      </c>
+      <c r="F13" t="s">
+        <v>752</v>
+      </c>
+      <c r="G13">
+        <v>35</v>
+      </c>
+      <c r="H13" t="s">
+        <v>746</v>
+      </c>
+      <c r="I13" t="s">
+        <v>746</v>
+      </c>
+      <c r="J13" t="s">
+        <v>474</v>
+      </c>
+      <c r="K13" t="s">
+        <v>746</v>
+      </c>
+      <c r="L13" t="s">
+        <v>475</v>
+      </c>
+      <c r="M13" t="s">
+        <v>765</v>
+      </c>
+      <c r="N13" t="s">
+        <v>746</v>
+      </c>
+      <c r="O13" t="s">
+        <v>474</v>
+      </c>
+      <c r="P13" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+      <c r="B14">
+        <v>10080</v>
+      </c>
+      <c r="C14" t="s">
+        <v>767</v>
+      </c>
+      <c r="D14" t="s">
+        <v>768</v>
+      </c>
+      <c r="E14" t="s">
+        <v>748</v>
+      </c>
+      <c r="F14" t="s">
+        <v>752</v>
+      </c>
+      <c r="G14">
+        <v>133</v>
+      </c>
+      <c r="H14" t="s">
+        <v>746</v>
+      </c>
+      <c r="I14" t="s">
+        <v>746</v>
+      </c>
+      <c r="J14" t="s">
+        <v>474</v>
+      </c>
+      <c r="K14" t="s">
+        <v>769</v>
+      </c>
+      <c r="L14" t="s">
+        <v>475</v>
+      </c>
+      <c r="M14" t="s">
+        <v>771</v>
+      </c>
+      <c r="N14" t="s">
+        <v>474</v>
+      </c>
+      <c r="O14" t="s">
+        <v>475</v>
+      </c>
+      <c r="P14" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B15">
+        <v>10080</v>
+      </c>
+      <c r="C15" t="s">
+        <v>767</v>
+      </c>
+      <c r="D15" t="s">
+        <v>770</v>
+      </c>
+      <c r="E15" t="s">
+        <v>748</v>
+      </c>
+      <c r="F15" t="s">
+        <v>752</v>
+      </c>
+      <c r="G15">
+        <v>51</v>
+      </c>
+      <c r="H15" t="s">
+        <v>746</v>
+      </c>
+      <c r="I15" t="s">
+        <v>746</v>
+      </c>
+      <c r="J15" t="s">
+        <v>474</v>
+      </c>
+      <c r="K15" t="s">
+        <v>769</v>
+      </c>
+      <c r="L15" t="s">
+        <v>475</v>
+      </c>
+      <c r="M15" t="s">
+        <v>772</v>
+      </c>
+      <c r="N15" t="s">
+        <v>474</v>
+      </c>
+      <c r="O15" t="s">
+        <v>475</v>
+      </c>
+      <c r="P15" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B16">
+        <v>10093</v>
+      </c>
+      <c r="C16" t="s">
+        <v>773</v>
+      </c>
+      <c r="D16" t="s">
+        <v>775</v>
+      </c>
+      <c r="E16" t="s">
+        <v>774</v>
+      </c>
+      <c r="F16" t="s">
+        <v>752</v>
+      </c>
+      <c r="G16">
+        <v>214</v>
+      </c>
+      <c r="H16" t="s">
+        <v>746</v>
+      </c>
+      <c r="I16" t="s">
+        <v>746</v>
+      </c>
+      <c r="J16" t="s">
+        <v>474</v>
+      </c>
+      <c r="K16" t="s">
+        <v>776</v>
+      </c>
+      <c r="L16" t="s">
+        <v>475</v>
+      </c>
+      <c r="M16" t="s">
+        <v>746</v>
+      </c>
+      <c r="N16" t="s">
+        <v>474</v>
+      </c>
+      <c r="O16" t="s">
+        <v>474</v>
+      </c>
+      <c r="P16" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
+      <c r="B17">
+        <v>10097</v>
+      </c>
+      <c r="C17" t="s">
+        <v>777</v>
+      </c>
+      <c r="D17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s">
+        <v>755</v>
+      </c>
+      <c r="G17">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17" t="s">
+        <v>745</v>
+      </c>
+      <c r="J17" t="s">
+        <v>475</v>
+      </c>
+      <c r="K17" t="s">
+        <v>776</v>
+      </c>
+      <c r="L17" t="s">
+        <v>475</v>
+      </c>
+      <c r="M17" t="s">
+        <v>779</v>
+      </c>
+      <c r="N17" t="s">
+        <v>475</v>
+      </c>
+      <c r="O17" t="s">
+        <v>474</v>
+      </c>
+      <c r="P17" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" t="s">
+        <v>481</v>
+      </c>
+      <c r="B18">
+        <v>10097</v>
+      </c>
+      <c r="C18" t="s">
+        <v>777</v>
+      </c>
+      <c r="D18" t="s">
+        <v>778</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" t="s">
+        <v>743</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18" t="s">
+        <v>745</v>
+      </c>
+      <c r="J18" t="s">
+        <v>475</v>
+      </c>
+      <c r="K18" t="s">
+        <v>776</v>
+      </c>
+      <c r="L18" t="s">
+        <v>475</v>
+      </c>
+      <c r="M18" t="s">
+        <v>779</v>
+      </c>
+      <c r="N18" t="s">
+        <v>475</v>
+      </c>
+      <c r="O18" t="s">
+        <v>474</v>
+      </c>
+      <c r="P18" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+      <c r="B19">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" t="s">
+        <v>768</v>
+      </c>
+      <c r="E19" t="s">
+        <v>748</v>
+      </c>
+      <c r="F19" t="s">
+        <v>752</v>
+      </c>
+      <c r="G19">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>746</v>
+      </c>
+      <c r="I19" t="s">
+        <v>746</v>
+      </c>
+      <c r="J19" t="s">
+        <v>474</v>
+      </c>
+      <c r="K19" t="s">
+        <v>746</v>
+      </c>
+      <c r="L19" t="s">
+        <v>475</v>
+      </c>
+      <c r="M19" t="s">
+        <v>746</v>
+      </c>
+      <c r="N19" t="s">
+        <v>474</v>
+      </c>
+      <c r="O19" t="s">
+        <v>474</v>
+      </c>
+      <c r="P19" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
+      <c r="B20">
+        <v>1011</v>
+      </c>
+      <c r="C20" t="s">
+        <v>781</v>
+      </c>
+      <c r="D20" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" t="s">
+        <v>748</v>
+      </c>
+      <c r="F20" t="s">
+        <v>752</v>
+      </c>
+      <c r="G20">
+        <v>102</v>
+      </c>
+      <c r="H20" t="s">
+        <v>746</v>
+      </c>
+      <c r="I20" t="s">
+        <v>746</v>
+      </c>
+      <c r="J20" t="s">
+        <v>474</v>
+      </c>
+      <c r="K20" t="s">
+        <v>746</v>
+      </c>
+      <c r="L20" t="s">
+        <v>475</v>
+      </c>
+      <c r="M20" t="s">
+        <v>782</v>
+      </c>
+      <c r="N20" t="s">
+        <v>475</v>
+      </c>
+      <c r="O20" t="s">
+        <v>474</v>
+      </c>
+      <c r="P20" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
+      <c r="B21">
+        <v>10124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>784</v>
+      </c>
+      <c r="D21" t="s">
+        <v>785</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>752</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>746</v>
+      </c>
+      <c r="I21" t="s">
+        <v>746</v>
+      </c>
+      <c r="J21" t="s">
+        <v>475</v>
+      </c>
+      <c r="K21" t="s">
+        <v>786</v>
+      </c>
+      <c r="L21" t="s">
+        <v>474</v>
+      </c>
+      <c r="M21" t="s">
+        <v>746</v>
+      </c>
+      <c r="N21" t="s">
+        <v>475</v>
+      </c>
+      <c r="O21" t="s">
+        <v>475</v>
+      </c>
+      <c r="P21" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="A22" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22">
+        <v>10124</v>
+      </c>
+      <c r="C22" t="s">
+        <v>784</v>
+      </c>
+      <c r="D22" t="s">
+        <v>785</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>752</v>
+      </c>
+      <c r="G22">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>746</v>
+      </c>
+      <c r="I22" t="s">
+        <v>746</v>
+      </c>
+      <c r="J22" t="s">
+        <v>475</v>
+      </c>
+      <c r="K22" t="s">
+        <v>786</v>
+      </c>
+      <c r="L22" t="s">
+        <v>475</v>
+      </c>
+      <c r="M22" t="s">
+        <v>746</v>
+      </c>
+      <c r="N22" t="s">
+        <v>475</v>
+      </c>
+      <c r="O22" t="s">
+        <v>475</v>
+      </c>
+      <c r="P22" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" t="s">
+        <v>483</v>
+      </c>
+      <c r="B23">
+        <v>10124</v>
+      </c>
+      <c r="C23" t="s">
+        <v>784</v>
+      </c>
+      <c r="D23" t="s">
+        <v>785</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>752</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23" t="s">
+        <v>746</v>
+      </c>
+      <c r="I23" t="s">
+        <v>746</v>
+      </c>
+      <c r="J23" t="s">
+        <v>475</v>
+      </c>
+      <c r="K23" t="s">
+        <v>787</v>
+      </c>
+      <c r="L23" t="s">
+        <v>474</v>
+      </c>
+      <c r="M23" t="s">
+        <v>746</v>
+      </c>
+      <c r="N23" t="s">
+        <v>475</v>
+      </c>
+      <c r="O23" t="s">
+        <v>475</v>
+      </c>
+      <c r="P23" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
+      <c r="B24">
+        <v>10144</v>
+      </c>
+      <c r="C24" t="s">
+        <v>788</v>
+      </c>
+      <c r="D24" t="s">
+        <v>789</v>
+      </c>
+      <c r="E24" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" t="s">
+        <v>790</v>
+      </c>
+      <c r="G24">
+        <v>38</v>
+      </c>
+      <c r="H24" t="s">
+        <v>746</v>
+      </c>
+      <c r="I24" t="s">
+        <v>746</v>
+      </c>
+      <c r="J24" t="s">
+        <v>475</v>
+      </c>
+      <c r="K24" t="s">
+        <v>791</v>
+      </c>
+      <c r="L24" t="s">
+        <v>475</v>
+      </c>
+      <c r="M24" t="s">
+        <v>792</v>
+      </c>
+      <c r="N24" t="s">
+        <v>475</v>
+      </c>
+      <c r="O24" t="s">
+        <v>475</v>
+      </c>
+      <c r="P24" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="B25">
+        <v>10169</v>
+      </c>
+      <c r="C25" t="s">
+        <v>793</v>
+      </c>
+      <c r="D25" t="s">
+        <v>770</v>
+      </c>
+      <c r="E25" t="s">
+        <v>748</v>
+      </c>
+      <c r="F25" t="s">
+        <v>794</v>
+      </c>
+      <c r="G25">
+        <v>1062</v>
+      </c>
+      <c r="H25" t="s">
+        <v>746</v>
+      </c>
+      <c r="I25" t="s">
+        <v>746</v>
+      </c>
+      <c r="J25" t="s">
+        <v>475</v>
+      </c>
+      <c r="K25" t="s">
+        <v>746</v>
+      </c>
+      <c r="L25" t="s">
+        <v>474</v>
+      </c>
+      <c r="M25" t="s">
+        <v>746</v>
+      </c>
+      <c r="N25" t="s">
+        <v>475</v>
+      </c>
+      <c r="O25" t="s">
+        <v>475</v>
+      </c>
+      <c r="P25" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" t="s">
+        <v>485</v>
+      </c>
+      <c r="B26">
+        <v>10169</v>
+      </c>
+      <c r="C26" t="s">
+        <v>793</v>
+      </c>
+      <c r="D26" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" t="s">
+        <v>748</v>
+      </c>
+      <c r="F26" t="s">
+        <v>794</v>
+      </c>
+      <c r="G26">
+        <v>441</v>
+      </c>
+      <c r="H26" t="s">
+        <v>746</v>
+      </c>
+      <c r="I26" t="s">
+        <v>746</v>
+      </c>
+      <c r="J26" t="s">
+        <v>475</v>
+      </c>
+      <c r="K26" t="s">
+        <v>746</v>
+      </c>
+      <c r="L26" t="s">
+        <v>474</v>
+      </c>
+      <c r="M26" t="s">
+        <v>746</v>
+      </c>
+      <c r="N26" t="s">
+        <v>475</v>
+      </c>
+      <c r="O26" t="s">
+        <v>475</v>
+      </c>
+      <c r="P26" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="A27" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+      <c r="B27">
+        <v>10171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>795</v>
+      </c>
+      <c r="D27" t="s">
+        <v>796</v>
+      </c>
+      <c r="E27" t="s">
+        <v>797</v>
+      </c>
+      <c r="F27" t="s">
+        <v>752</v>
+      </c>
+      <c r="G27">
+        <v>212</v>
+      </c>
+      <c r="H27" t="s">
+        <v>746</v>
+      </c>
+      <c r="I27" t="s">
+        <v>746</v>
+      </c>
+      <c r="J27" t="s">
+        <v>474</v>
+      </c>
+      <c r="K27" t="s">
+        <v>796</v>
+      </c>
+      <c r="L27" t="s">
+        <v>475</v>
+      </c>
+      <c r="M27" t="s">
+        <v>746</v>
+      </c>
+      <c r="N27" t="s">
+        <v>475</v>
+      </c>
+      <c r="O27" t="s">
+        <v>475</v>
+      </c>
+      <c r="P27" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="A28" t="s">
+        <v>486</v>
+      </c>
+      <c r="B28">
+        <v>10171</v>
+      </c>
+      <c r="C28" t="s">
+        <v>795</v>
+      </c>
+      <c r="D28" t="s">
+        <v>798</v>
+      </c>
+      <c r="E28" t="s">
+        <v>797</v>
+      </c>
+      <c r="F28" t="s">
+        <v>752</v>
+      </c>
+      <c r="G28">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>746</v>
+      </c>
+      <c r="I28" t="s">
+        <v>746</v>
+      </c>
+      <c r="J28" t="s">
+        <v>474</v>
+      </c>
+      <c r="K28" t="s">
+        <v>798</v>
+      </c>
+      <c r="L28" t="s">
+        <v>475</v>
+      </c>
+      <c r="M28" t="s">
+        <v>746</v>
+      </c>
+      <c r="N28" t="s">
+        <v>475</v>
+      </c>
+      <c r="O28" t="s">
+        <v>475</v>
+      </c>
+      <c r="P28" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="B29">
+        <v>10196</v>
+      </c>
+      <c r="C29" t="s">
+        <v>799</v>
+      </c>
+      <c r="D29" t="s">
+        <v>801</v>
+      </c>
+      <c r="E29" t="s">
+        <v>800</v>
+      </c>
+      <c r="F29" t="s">
+        <v>69</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29" t="s">
+        <v>746</v>
+      </c>
+      <c r="I29" t="s">
+        <v>746</v>
+      </c>
+      <c r="J29" t="s">
+        <v>475</v>
+      </c>
+      <c r="K29" t="s">
+        <v>776</v>
+      </c>
+      <c r="L29" t="s">
+        <v>474</v>
+      </c>
+      <c r="M29" t="s">
+        <v>802</v>
+      </c>
+      <c r="N29" t="s">
+        <v>475</v>
+      </c>
+      <c r="O29" t="s">
+        <v>474</v>
+      </c>
+      <c r="P29" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" t="s">
+        <v>487</v>
+      </c>
+      <c r="B30">
+        <v>10196</v>
+      </c>
+      <c r="C30" t="s">
+        <v>799</v>
+      </c>
+      <c r="D30" t="s">
+        <v>801</v>
+      </c>
+      <c r="E30" t="s">
+        <v>800</v>
+      </c>
+      <c r="F30" t="s">
+        <v>69</v>
+      </c>
+      <c r="G30">
+        <v>6</v>
+      </c>
+      <c r="H30" t="s">
+        <v>746</v>
+      </c>
+      <c r="I30" t="s">
+        <v>746</v>
+      </c>
+      <c r="J30" t="s">
+        <v>475</v>
+      </c>
+      <c r="K30" t="s">
+        <v>776</v>
+      </c>
+      <c r="L30" t="s">
+        <v>474</v>
+      </c>
+      <c r="M30" t="s">
+        <v>803</v>
+      </c>
+      <c r="N30" t="s">
+        <v>475</v>
+      </c>
+      <c r="O30" t="s">
+        <v>474</v>
+      </c>
+      <c r="P30" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" t="s">
+        <v>487</v>
+      </c>
+      <c r="B31">
+        <v>10196</v>
+      </c>
+      <c r="C31" t="s">
+        <v>799</v>
+      </c>
+      <c r="D31" t="s">
+        <v>801</v>
+      </c>
+      <c r="E31" t="s">
+        <v>800</v>
+      </c>
+      <c r="F31" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31">
+        <v>8</v>
+      </c>
+      <c r="H31" t="s">
+        <v>746</v>
+      </c>
+      <c r="I31" t="s">
+        <v>746</v>
+      </c>
+      <c r="J31" t="s">
+        <v>475</v>
+      </c>
+      <c r="K31" t="s">
+        <v>776</v>
+      </c>
+      <c r="L31" t="s">
+        <v>474</v>
+      </c>
+      <c r="M31" t="s">
+        <v>804</v>
+      </c>
+      <c r="N31" t="s">
+        <v>475</v>
+      </c>
+      <c r="O31" t="s">
+        <v>474</v>
+      </c>
+      <c r="P31" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" t="s">
+        <v>487</v>
+      </c>
+      <c r="B32">
+        <v>10196</v>
+      </c>
+      <c r="C32" t="s">
+        <v>799</v>
+      </c>
+      <c r="D32" t="s">
+        <v>801</v>
+      </c>
+      <c r="E32" t="s">
+        <v>800</v>
+      </c>
+      <c r="F32" t="s">
+        <v>69</v>
+      </c>
+      <c r="G32">
+        <v>8</v>
+      </c>
+      <c r="H32" t="s">
+        <v>746</v>
+      </c>
+      <c r="I32" t="s">
+        <v>746</v>
+      </c>
+      <c r="J32" t="s">
+        <v>475</v>
+      </c>
+      <c r="K32" t="s">
+        <v>776</v>
+      </c>
+      <c r="L32" t="s">
+        <v>475</v>
+      </c>
+      <c r="M32" t="s">
+        <v>805</v>
+      </c>
+      <c r="N32" t="s">
+        <v>475</v>
+      </c>
+      <c r="O32" t="s">
+        <v>474</v>
+      </c>
+      <c r="P32" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="B33">
+        <v>1020</v>
+      </c>
+      <c r="C33" t="s">
+        <v>806</v>
+      </c>
+      <c r="D33" t="s">
+        <v>770</v>
+      </c>
+      <c r="E33" t="s">
+        <v>748</v>
+      </c>
+      <c r="F33" t="s">
+        <v>808</v>
+      </c>
+      <c r="G33">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>746</v>
+      </c>
+      <c r="I33" t="s">
+        <v>746</v>
+      </c>
+      <c r="J33" t="s">
+        <v>474</v>
+      </c>
+      <c r="K33" t="s">
+        <v>807</v>
+      </c>
+      <c r="L33" t="s">
+        <v>474</v>
+      </c>
+      <c r="M33" t="s">
+        <v>746</v>
+      </c>
+      <c r="N33" t="s">
+        <v>475</v>
+      </c>
+      <c r="O33" t="s">
+        <v>474</v>
+      </c>
+      <c r="P33" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" t="s">
+        <v>488</v>
+      </c>
+      <c r="B34">
+        <v>1020</v>
+      </c>
+      <c r="C34" t="s">
+        <v>806</v>
+      </c>
+      <c r="D34" t="s">
+        <v>770</v>
+      </c>
+      <c r="E34" t="s">
+        <v>748</v>
+      </c>
+      <c r="F34" t="s">
+        <v>809</v>
+      </c>
+      <c r="G34">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s">
+        <v>746</v>
+      </c>
+      <c r="I34" t="s">
+        <v>746</v>
+      </c>
+      <c r="J34" t="s">
+        <v>474</v>
+      </c>
+      <c r="K34" t="s">
+        <v>807</v>
+      </c>
+      <c r="L34" t="s">
+        <v>474</v>
+      </c>
+      <c r="M34" t="s">
+        <v>746</v>
+      </c>
+      <c r="N34" t="s">
+        <v>475</v>
+      </c>
+      <c r="O34" t="s">
+        <v>474</v>
+      </c>
+      <c r="P34" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" t="s">
+        <v>492</v>
+      </c>
+      <c r="B35">
+        <v>1024</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" t="s">
+        <v>810</v>
+      </c>
+      <c r="E35" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" t="s">
+        <v>743</v>
+      </c>
+      <c r="G35">
+        <v>79</v>
+      </c>
+      <c r="H35">
+        <v>100</v>
+      </c>
+      <c r="I35" t="s">
+        <v>745</v>
+      </c>
+      <c r="J35" t="s">
+        <v>475</v>
+      </c>
+      <c r="K35" t="s">
+        <v>746</v>
+      </c>
+      <c r="L35" t="s">
+        <v>475</v>
+      </c>
+      <c r="M35" t="s">
+        <v>811</v>
+      </c>
+      <c r="N35" t="s">
+        <v>475</v>
+      </c>
+      <c r="O35" t="s">
+        <v>474</v>
+      </c>
+      <c r="P35" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" t="s">
+        <v>492</v>
+      </c>
+      <c r="B36">
+        <v>1024</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" t="s">
+        <v>810</v>
+      </c>
+      <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
+        <v>812</v>
+      </c>
+      <c r="G36">
+        <v>170</v>
+      </c>
+      <c r="H36">
+        <v>100</v>
+      </c>
+      <c r="I36" t="s">
+        <v>745</v>
+      </c>
+      <c r="J36" t="s">
+        <v>475</v>
+      </c>
+      <c r="K36" t="s">
+        <v>746</v>
+      </c>
+      <c r="L36" t="s">
+        <v>475</v>
+      </c>
+      <c r="M36" t="s">
+        <v>811</v>
+      </c>
+      <c r="N36" t="s">
+        <v>475</v>
+      </c>
+      <c r="O36" t="s">
+        <v>474</v>
+      </c>
+      <c r="P36" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="B37">
+        <v>10245</v>
+      </c>
+      <c r="C37" t="s">
+        <v>813</v>
+      </c>
+      <c r="D37" t="s">
+        <v>815</v>
+      </c>
+      <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
+        <v>814</v>
+      </c>
+      <c r="G37">
+        <v>120</v>
+      </c>
+      <c r="H37" t="s">
+        <v>746</v>
+      </c>
+      <c r="I37" t="s">
+        <v>746</v>
+      </c>
+      <c r="J37" t="s">
+        <v>746</v>
+      </c>
+      <c r="K37" t="s">
+        <v>796</v>
+      </c>
+      <c r="L37" t="s">
+        <v>475</v>
+      </c>
+      <c r="M37" t="s">
+        <v>746</v>
+      </c>
+      <c r="N37" t="s">
+        <v>746</v>
+      </c>
+      <c r="O37" t="s">
+        <v>475</v>
+      </c>
+      <c r="P37" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="B38">
+        <v>10248</v>
+      </c>
+      <c r="C38" t="s">
+        <v>816</v>
+      </c>
+      <c r="D38" t="s">
+        <v>817</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>818</v>
+      </c>
+      <c r="G38">
+        <v>62</v>
+      </c>
+      <c r="H38" t="s">
+        <v>746</v>
+      </c>
+      <c r="I38" t="s">
+        <v>746</v>
+      </c>
+      <c r="J38" t="s">
+        <v>474</v>
+      </c>
+      <c r="K38" t="s">
+        <v>746</v>
+      </c>
+      <c r="L38" t="s">
+        <v>475</v>
+      </c>
+      <c r="M38" t="s">
+        <v>746</v>
+      </c>
+      <c r="N38" t="s">
+        <v>746</v>
+      </c>
+      <c r="O38" t="s">
+        <v>475</v>
+      </c>
+      <c r="P38" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="B39">
+        <v>10249</v>
+      </c>
+      <c r="C39" t="s">
+        <v>819</v>
+      </c>
+      <c r="D39" t="s">
+        <v>768</v>
+      </c>
+      <c r="E39" t="s">
+        <v>748</v>
+      </c>
+      <c r="F39" t="s">
+        <v>752</v>
+      </c>
+      <c r="G39">
+        <v>1093</v>
+      </c>
+      <c r="H39" t="s">
+        <v>746</v>
+      </c>
+      <c r="I39" t="s">
+        <v>746</v>
+      </c>
+      <c r="J39" t="s">
+        <v>474</v>
+      </c>
+      <c r="K39" t="s">
+        <v>746</v>
+      </c>
+      <c r="L39" t="s">
+        <v>475</v>
+      </c>
+      <c r="M39" t="s">
+        <v>746</v>
+      </c>
+      <c r="N39" t="s">
+        <v>475</v>
+      </c>
+      <c r="O39" t="s">
+        <v>474</v>
+      </c>
+      <c r="P39" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="18" customHeight="1">
+      <c r="A40" t="s">
+        <v>491</v>
+      </c>
+      <c r="B40">
+        <v>10249</v>
+      </c>
+      <c r="C40" t="s">
+        <v>819</v>
+      </c>
+      <c r="D40" t="s">
+        <v>768</v>
+      </c>
+      <c r="E40" t="s">
+        <v>748</v>
+      </c>
+      <c r="F40" t="s">
+        <v>820</v>
+      </c>
+      <c r="G40">
+        <v>123</v>
+      </c>
+      <c r="H40" t="s">
+        <v>746</v>
+      </c>
+      <c r="I40" t="s">
+        <v>746</v>
+      </c>
+      <c r="J40" t="s">
+        <v>474</v>
+      </c>
+      <c r="K40" t="s">
+        <v>746</v>
+      </c>
+      <c r="L40" t="s">
+        <v>475</v>
+      </c>
+      <c r="M40" t="s">
+        <v>746</v>
+      </c>
+      <c r="N40" t="s">
+        <v>475</v>
+      </c>
+      <c r="O40" t="s">
+        <v>474</v>
+      </c>
+      <c r="P40" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+      <c r="B41">
+        <v>10257</v>
+      </c>
+      <c r="C41" t="s">
+        <v>821</v>
+      </c>
+      <c r="D41" t="s">
+        <v>824</v>
+      </c>
+      <c r="E41" t="s">
+        <v>748</v>
+      </c>
+      <c r="F41" t="s">
+        <v>752</v>
+      </c>
+      <c r="G41">
+        <v>107</v>
+      </c>
+      <c r="H41" t="s">
+        <v>746</v>
+      </c>
+      <c r="I41" t="s">
+        <v>746</v>
+      </c>
+      <c r="J41" t="s">
+        <v>474</v>
+      </c>
+      <c r="K41" t="s">
+        <v>776</v>
+      </c>
+      <c r="L41" t="s">
+        <v>474</v>
+      </c>
+      <c r="M41" t="s">
+        <v>822</v>
+      </c>
+      <c r="N41" t="s">
+        <v>746</v>
+      </c>
+      <c r="O41" t="s">
+        <v>474</v>
+      </c>
+      <c r="P41" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
+      <c r="A42" t="s">
+        <v>493</v>
+      </c>
+      <c r="B42">
+        <v>10257</v>
+      </c>
+      <c r="C42" t="s">
+        <v>821</v>
+      </c>
+      <c r="D42" t="s">
+        <v>823</v>
+      </c>
+      <c r="E42" t="s">
+        <v>748</v>
+      </c>
+      <c r="F42" t="s">
+        <v>752</v>
+      </c>
+      <c r="G42">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>746</v>
+      </c>
+      <c r="I42" t="s">
+        <v>746</v>
+      </c>
+      <c r="J42" t="s">
+        <v>474</v>
+      </c>
+      <c r="K42" t="s">
+        <v>776</v>
+      </c>
+      <c r="L42" t="s">
+        <v>474</v>
+      </c>
+      <c r="M42" t="s">
+        <v>822</v>
+      </c>
+      <c r="N42" t="s">
+        <v>746</v>
+      </c>
+      <c r="O42" t="s">
+        <v>474</v>
+      </c>
+      <c r="P42" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17">
+      <c r="A43" t="s">
+        <v>493</v>
+      </c>
+      <c r="B43">
+        <v>10257</v>
+      </c>
+      <c r="C43" t="s">
+        <v>821</v>
+      </c>
+      <c r="D43" t="s">
+        <v>770</v>
+      </c>
+      <c r="E43" t="s">
+        <v>748</v>
+      </c>
+      <c r="F43" t="s">
+        <v>752</v>
+      </c>
+      <c r="G43">
+        <v>29</v>
+      </c>
+      <c r="H43" t="s">
+        <v>746</v>
+      </c>
+      <c r="I43" t="s">
+        <v>746</v>
+      </c>
+      <c r="J43" t="s">
+        <v>474</v>
+      </c>
+      <c r="K43" t="s">
+        <v>746</v>
+      </c>
+      <c r="L43" t="s">
+        <v>474</v>
+      </c>
+      <c r="M43" t="s">
+        <v>822</v>
+      </c>
+      <c r="N43" t="s">
+        <v>746</v>
+      </c>
+      <c r="O43" t="s">
+        <v>474</v>
+      </c>
+      <c r="P43" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+      <c r="B44">
+        <v>10272</v>
+      </c>
+      <c r="C44" t="s">
+        <v>825</v>
+      </c>
+      <c r="D44" t="s">
+        <v>826</v>
+      </c>
+      <c r="E44" t="s">
+        <v>800</v>
+      </c>
+      <c r="F44" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44">
+        <v>18</v>
+      </c>
+      <c r="H44" t="s">
+        <v>746</v>
+      </c>
+      <c r="I44" t="s">
+        <v>746</v>
+      </c>
+      <c r="J44" t="s">
+        <v>475</v>
+      </c>
+      <c r="K44" t="s">
+        <v>796</v>
+      </c>
+      <c r="L44" t="s">
+        <v>746</v>
+      </c>
+      <c r="M44" t="s">
+        <v>746</v>
+      </c>
+      <c r="N44" t="s">
+        <v>475</v>
+      </c>
+      <c r="O44" t="s">
+        <v>474</v>
+      </c>
+      <c r="P44" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" t="s">
+        <v>494</v>
+      </c>
+      <c r="B45">
+        <v>10272</v>
+      </c>
+      <c r="C45" t="s">
+        <v>825</v>
+      </c>
+      <c r="D45" t="s">
+        <v>827</v>
+      </c>
+      <c r="E45" t="s">
+        <v>800</v>
+      </c>
+      <c r="F45" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45">
+        <v>15</v>
+      </c>
+      <c r="H45" t="s">
+        <v>746</v>
+      </c>
+      <c r="I45" t="s">
+        <v>746</v>
+      </c>
+      <c r="J45" t="s">
+        <v>475</v>
+      </c>
+      <c r="K45" t="s">
+        <v>796</v>
+      </c>
+      <c r="L45" t="s">
+        <v>746</v>
+      </c>
+      <c r="M45" t="s">
+        <v>746</v>
+      </c>
+      <c r="N45" t="s">
+        <v>475</v>
+      </c>
+      <c r="O45" t="s">
+        <v>474</v>
+      </c>
+      <c r="P45" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" t="s">
+        <v>494</v>
+      </c>
+      <c r="B46">
+        <v>10272</v>
+      </c>
+      <c r="C46" t="s">
+        <v>825</v>
+      </c>
+      <c r="D46" t="s">
+        <v>828</v>
+      </c>
+      <c r="E46" t="s">
+        <v>800</v>
+      </c>
+      <c r="F46" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46">
+        <v>19</v>
+      </c>
+      <c r="H46" t="s">
+        <v>746</v>
+      </c>
+      <c r="I46" t="s">
+        <v>746</v>
+      </c>
+      <c r="J46" t="s">
+        <v>475</v>
+      </c>
+      <c r="K46" t="s">
+        <v>796</v>
+      </c>
+      <c r="L46" t="s">
+        <v>746</v>
+      </c>
+      <c r="M46" t="s">
+        <v>746</v>
+      </c>
+      <c r="N46" t="s">
+        <v>475</v>
+      </c>
+      <c r="O46" t="s">
+        <v>474</v>
+      </c>
+      <c r="P46" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" t="s">
+        <v>494</v>
+      </c>
+      <c r="B47">
+        <v>10272</v>
+      </c>
+      <c r="C47" t="s">
+        <v>825</v>
+      </c>
+      <c r="D47" t="s">
+        <v>829</v>
+      </c>
+      <c r="E47" t="s">
+        <v>800</v>
+      </c>
+      <c r="F47" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>746</v>
+      </c>
+      <c r="I47" t="s">
+        <v>746</v>
+      </c>
+      <c r="J47" t="s">
+        <v>475</v>
+      </c>
+      <c r="K47" t="s">
+        <v>796</v>
+      </c>
+      <c r="L47" t="s">
+        <v>746</v>
+      </c>
+      <c r="M47" t="s">
+        <v>746</v>
+      </c>
+      <c r="N47" t="s">
+        <v>475</v>
+      </c>
+      <c r="O47" t="s">
+        <v>474</v>
+      </c>
+      <c r="P47" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+      <c r="B48">
+        <v>10285</v>
+      </c>
+      <c r="C48" t="s">
+        <v>830</v>
+      </c>
+      <c r="D48" t="s">
+        <v>832</v>
+      </c>
+      <c r="E48" t="s">
+        <v>774</v>
+      </c>
+      <c r="F48" t="s">
+        <v>752</v>
+      </c>
+      <c r="G48">
+        <v>26</v>
+      </c>
+      <c r="H48" t="s">
+        <v>746</v>
+      </c>
+      <c r="I48" t="s">
+        <v>746</v>
+      </c>
+      <c r="J48" t="s">
+        <v>475</v>
+      </c>
+      <c r="K48" t="s">
+        <v>746</v>
+      </c>
+      <c r="L48" t="s">
+        <v>746</v>
+      </c>
+      <c r="M48" t="s">
+        <v>746</v>
+      </c>
+      <c r="N48" t="s">
+        <v>746</v>
+      </c>
+      <c r="O48" t="s">
+        <v>474</v>
+      </c>
+      <c r="P48" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+      <c r="B49">
+        <v>10291</v>
+      </c>
+      <c r="C49" t="s">
+        <v>833</v>
+      </c>
+      <c r="D49" t="s">
+        <v>834</v>
+      </c>
+      <c r="E49" t="s">
+        <v>774</v>
+      </c>
+      <c r="F49" t="s">
+        <v>835</v>
+      </c>
+      <c r="G49">
+        <v>62</v>
+      </c>
+      <c r="H49" t="s">
+        <v>746</v>
+      </c>
+      <c r="I49" t="s">
+        <v>746</v>
+      </c>
+      <c r="J49" t="s">
+        <v>474</v>
+      </c>
+      <c r="K49" t="s">
+        <v>776</v>
+      </c>
+      <c r="L49" t="s">
+        <v>474</v>
+      </c>
+      <c r="M49" t="s">
+        <v>836</v>
+      </c>
+      <c r="N49" t="s">
+        <v>474</v>
+      </c>
+      <c r="O49" t="s">
+        <v>474</v>
+      </c>
+      <c r="P49" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" t="s">
+        <v>496</v>
+      </c>
+      <c r="B50">
+        <v>10291</v>
+      </c>
+      <c r="C50" t="s">
+        <v>833</v>
+      </c>
+      <c r="D50" t="s">
+        <v>834</v>
+      </c>
+      <c r="E50" t="s">
+        <v>774</v>
+      </c>
+      <c r="F50" t="s">
+        <v>835</v>
+      </c>
+      <c r="G50">
+        <v>58</v>
+      </c>
+      <c r="H50" t="s">
+        <v>746</v>
+      </c>
+      <c r="I50" t="s">
+        <v>746</v>
+      </c>
+      <c r="J50" t="s">
+        <v>474</v>
+      </c>
+      <c r="K50" t="s">
+        <v>776</v>
+      </c>
+      <c r="L50" t="s">
+        <v>474</v>
+      </c>
+      <c r="M50" t="s">
+        <v>837</v>
+      </c>
+      <c r="N50" t="s">
+        <v>474</v>
+      </c>
+      <c r="O50" t="s">
+        <v>474</v>
+      </c>
+      <c r="P50" t="s">
+        <v>475</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+      <c r="B51">
+        <v>10296</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+      <c r="B52">
+        <v>10297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17">
+      <c r="A53" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+      <c r="B53">
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="A54" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+      <c r="B54">
+        <v>10315</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="A55" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+      <c r="B55">
+        <v>10317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" t="s">
+        <v>504</v>
+      </c>
+      <c r="B56">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+      <c r="B57">
+        <v>10323</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+      <c r="B58">
+        <v>10324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+      <c r="B59">
+        <v>10342</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="A60" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+      <c r="B60">
+        <v>10343</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="A61" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+      <c r="B61">
+        <v>10346</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="A62" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+      <c r="B62">
+        <v>10363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17">
+      <c r="A63" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+      <c r="B63">
+        <v>10369</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+      <c r="B64">
+        <v>10370</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+      <c r="B65">
+        <v>10376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+      <c r="B66">
+        <v>10378</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+      <c r="B67">
+        <v>10407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+      <c r="B68">
+        <v>10422</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+      <c r="B69">
+        <v>10461</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+      <c r="B70">
+        <v>10469</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+      <c r="B71">
+        <v>10483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+      <c r="B72">
+        <v>10508</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+      <c r="B73">
+        <v>10511</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+      <c r="B74">
+        <v>10512</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+      <c r="B75">
+        <v>10522</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+      <c r="B76">
+        <v>10527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+      <c r="B77">
+        <v>10530</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+      <c r="B78">
+        <v>10532</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+      <c r="B79">
+        <v>10533</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+      <c r="B80">
+        <v>10537</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+      <c r="B81">
+        <v>10541</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+      <c r="B82">
+        <v>10546</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>689</v>
+      </c>
+      <c r="B83">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+      <c r="B84">
+        <v>10563</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+      <c r="B85">
+        <v>10564</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+      <c r="B86">
+        <v>10565</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+      <c r="B87">
+        <v>10567</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+      <c r="B88">
+        <v>10581</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>692</v>
+      </c>
+      <c r="B89">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>694</v>
+      </c>
+      <c r="B90">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+      <c r="B91">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+      <c r="B92">
+        <v>10729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+      <c r="B93">
+        <v>10767</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+      <c r="B94">
+        <v>10777</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+      <c r="B95">
+        <v>10778</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+      <c r="B96">
+        <v>10786</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+      <c r="B97">
+        <v>10793</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+      <c r="B98">
+        <v>10794</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+      <c r="B99">
+        <v>10805</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+      <c r="B100">
+        <v>10812</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+      <c r="B101">
+        <v>10815</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+      <c r="B102">
+        <v>10894</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+      <c r="B103">
+        <v>10895</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+      <c r="B104">
+        <v>10898</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+      <c r="B105">
+        <v>10911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>696</v>
+      </c>
+      <c r="B106">
+        <v>10916</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="75" spans="1:1">
-      <c r="A75" t="s">
+      <c r="B107">
+        <v>10917</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" t="s">
+      <c r="B108">
+        <v>10918</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" t="s">
+      <c r="B109">
+        <v>10928</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" t="s">
+      <c r="B110">
+        <v>10936</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" t="s">
+      <c r="B111">
+        <v>11043</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" t="s">
+      <c r="B112">
+        <v>11076</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" t="s">
+      <c r="B113">
+        <v>11110</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" t="s">
+      <c r="B114">
+        <v>11113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" t="s">
+      <c r="B115">
+        <v>11116</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>698</v>
+      </c>
+      <c r="B116">
+        <v>11128</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" t="s">
+      <c r="B117">
+        <v>11129</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" t="s">
+      <c r="B118">
+        <v>11135</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" t="s">
+      <c r="B119">
+        <v>11156</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" t="s">
+      <c r="B120">
+        <v>11166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" t="s">
+      <c r="B121">
+        <v>11212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" t="s">
+      <c r="B122">
+        <v>11232</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" t="s">
+      <c r="B123">
+        <v>11255</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" t="s">
+      <c r="B124">
+        <v>11259</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" t="s">
+      <c r="B125">
+        <v>11284</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" t="s">
+      <c r="B126">
+        <v>11293</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" t="s">
+      <c r="B127">
+        <v>11333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" t="s">
+      <c r="B128">
+        <v>11335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" t="s">
+      <c r="B129">
+        <v>11336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" t="s">
+      <c r="B130">
+        <v>11349</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" t="s">
+      <c r="B131">
+        <v>11358</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="99" spans="1:1">
-      <c r="A99" t="s">
+      <c r="B132">
+        <v>11360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" t="s">
+      <c r="B133">
+        <v>11396</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" t="s">
+      <c r="B134">
+        <v>11400</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+      <c r="B135">
+        <v>11402</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" t="s">
+      <c r="B136">
+        <v>11405</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" t="s">
+      <c r="B137">
+        <v>11479</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" t="s">
+      <c r="B138">
+        <v>11484</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" t="s">
+      <c r="B139">
+        <v>11507</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" t="s">
+      <c r="B140">
+        <v>11513</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" t="s">
+      <c r="B141">
+        <v>11548</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" t="s">
+      <c r="B142">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" t="s">
+      <c r="B143">
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="111" spans="1:1">
-      <c r="A111" t="s">
+      <c r="B144">
+        <v>11625</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" t="s">
+      <c r="B145">
+        <v>11635</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="B146">
+        <v>11653</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" t="s">
+      <c r="B147">
+        <v>11666</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
+      <c r="B148">
+        <v>11669</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="B149">
+        <v>11692</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="B150">
+        <v>11710</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+      <c r="B151">
+        <v>11712</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="B152">
+        <v>11713</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+      <c r="B153">
+        <v>11718</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="B154">
+        <v>11721</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" t="s">
+      <c r="B155">
+        <v>11724</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
+      <c r="B156">
+        <v>11740</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+      <c r="B157">
+        <v>11757</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+      <c r="B158">
+        <v>11766</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+      <c r="B159">
+        <v>11815</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" t="s">
+      <c r="B160">
+        <v>11835</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
+      <c r="B161">
+        <v>11851</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+      <c r="B162">
+        <v>11874</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+      <c r="B163">
+        <v>11884</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+      <c r="B164">
+        <v>11888</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>609</v>
+      </c>
+      <c r="B165">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+      <c r="B166">
+        <v>11912</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
         <v>607</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" t="s">
+      <c r="B167">
+        <v>11913</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="B168">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>612</v>
+      </c>
+      <c r="B169">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+      <c r="B170">
+        <v>11920</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+      <c r="B171">
+        <v>11926</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" t="s">
+      <c r="B172">
+        <v>11933</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
+      <c r="B173">
+        <v>11937</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="B174">
+        <v>11947</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+      <c r="B175">
+        <v>11993</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="B176">
+        <v>12016</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="B177">
+        <v>12021</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+      <c r="B178">
+        <v>12024</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+      <c r="B179">
+        <v>12033</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="B180">
+        <v>12080</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="B181">
+        <v>12164</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+      <c r="B182">
+        <v>12199</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="150" spans="1:1">
-      <c r="A150" t="s">
+      <c r="B183">
+        <v>12241</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
+      <c r="B184">
+        <v>12285</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="B185">
+        <v>12365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+      <c r="B186">
+        <v>12382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+      <c r="B187">
+        <v>12470</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="155" spans="1:1">
-      <c r="A155" t="s">
+      <c r="B188">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
+      <c r="B189">
+        <v>12702</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+      <c r="B190">
+        <v>12716</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="B191">
+        <v>12996</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
+      <c r="B192">
+        <v>13187</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
+      <c r="B193">
+        <v>13196</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="161" spans="1:1">
-      <c r="A161" t="s">
+      <c r="B194">
+        <v>13215</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
+      <c r="B195">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
+      <c r="B196">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
+      <c r="B197">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" t="s">
+      <c r="B198">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
+      <c r="B199">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>700</v>
+      </c>
+      <c r="B200">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
+      <c r="B201">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
+      <c r="B202">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
+      <c r="B203">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="170" spans="1:1">
-      <c r="A170" t="s">
+      <c r="B204">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>702</v>
+      </c>
+      <c r="B205">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
+      <c r="B206">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
+      <c r="B207">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>704</v>
+      </c>
+      <c r="B208">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
+      <c r="B209">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
+      <c r="B210">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>706</v>
+      </c>
+      <c r="B211">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>708</v>
+      </c>
+      <c r="B212">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="175" spans="1:1">
-      <c r="A175" t="s">
+      <c r="B213">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="176" spans="1:1">
-      <c r="A176" t="s">
+      <c r="B214">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="177" spans="1:1">
-      <c r="A177" t="s">
+      <c r="B215">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>710</v>
+      </c>
+      <c r="B216">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>712</v>
+      </c>
+      <c r="B217">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="178" spans="1:1">
-      <c r="A178" t="s">
+      <c r="B218">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" t="s">
+      <c r="B219">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>714</v>
+      </c>
+      <c r="B220">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>716</v>
+      </c>
+      <c r="B221">
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>718</v>
+      </c>
+      <c r="B222">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>720</v>
+      </c>
+      <c r="B223">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="180" spans="1:1">
-      <c r="A180" t="s">
+      <c r="B224">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="181" spans="1:1">
-      <c r="A181" t="s">
+      <c r="B225">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>723</v>
+      </c>
+      <c r="B226">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="182" spans="1:1">
-      <c r="A182" t="s">
+      <c r="B227">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="183" spans="1:1">
-      <c r="A183" t="s">
+      <c r="B228">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="184" spans="1:1">
-      <c r="A184" t="s">
+      <c r="B229">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" t="s">
+      <c r="B230">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="186" spans="1:1">
-      <c r="A186" t="s">
+      <c r="B231">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="187" spans="1:1">
-      <c r="A187" t="s">
+      <c r="B232">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>724</v>
+      </c>
+      <c r="B233">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="188" spans="1:1">
-      <c r="A188" t="s">
+      <c r="B234">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="189" spans="1:1">
-      <c r="A189" t="s">
+      <c r="B235">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="190" spans="1:1">
-      <c r="A190" t="s">
+      <c r="B236">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="191" spans="1:1">
-      <c r="A191" t="s">
+      <c r="B237">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="192" spans="1:1">
-      <c r="A192" t="s">
+      <c r="B238">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+      <c r="B239">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+      <c r="B240">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
+      <c r="B241">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="196" spans="1:1">
-      <c r="A196" t="s">
+      <c r="B242">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="197" spans="1:1">
-      <c r="A197" t="s">
+      <c r="B243">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>726</v>
+      </c>
+      <c r="B244">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
+        <v>728</v>
+      </c>
+      <c r="B245">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="198" spans="1:1">
-      <c r="A198" t="s">
+      <c r="B246">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
+      <c r="A247" t="s">
+        <v>730</v>
+      </c>
+      <c r="B247">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
+      <c r="A248" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="199" spans="1:1">
-      <c r="A199" t="s">
+      <c r="B248">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="200" spans="1:1">
-      <c r="A200" t="s">
+      <c r="B249">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
+      <c r="A250" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="201" spans="1:1">
-      <c r="A201" t="s">
+      <c r="B250">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
+      <c r="A251" t="s">
+        <v>685</v>
+      </c>
+      <c r="B251">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>686</v>
+      </c>
+      <c r="B252">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
+      <c r="A253" t="s">
+        <v>688</v>
+      </c>
+      <c r="B253">
+        <v>2338</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
+      <c r="A254" t="s">
+        <v>690</v>
+      </c>
+      <c r="B254">
+        <v>2382</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
+      <c r="A255" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="202" spans="1:1">
-      <c r="A202" t="s">
+      <c r="B255">
+        <v>2401</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
+      <c r="A256" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="203" spans="1:1">
-      <c r="A203" t="s">
+      <c r="B256">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
+      <c r="A257" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" t="s">
+      <c r="B257">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
+      <c r="A258" t="s">
+        <v>693</v>
+      </c>
+      <c r="B258">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
+      <c r="A259" t="s">
+        <v>695</v>
+      </c>
+      <c r="B259">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
+      <c r="A260" t="s">
+        <v>697</v>
+      </c>
+      <c r="B260">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
+      <c r="A261" t="s">
+        <v>699</v>
+      </c>
+      <c r="B261">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
+      <c r="A262" t="s">
+        <v>701</v>
+      </c>
+      <c r="B262">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
+      <c r="A263" t="s">
+        <v>703</v>
+      </c>
+      <c r="B263">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
+      <c r="A264" t="s">
+        <v>705</v>
+      </c>
+      <c r="B264">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
+      <c r="A265" t="s">
+        <v>707</v>
+      </c>
+      <c r="B265">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
+      <c r="A266" t="s">
+        <v>709</v>
+      </c>
+      <c r="B266">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
+      <c r="A267" t="s">
+        <v>711</v>
+      </c>
+      <c r="B267">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
+      <c r="A268" t="s">
+        <v>713</v>
+      </c>
+      <c r="B268">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
+      <c r="A269" t="s">
+        <v>715</v>
+      </c>
+      <c r="B269">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
+      <c r="A270" t="s">
+        <v>717</v>
+      </c>
+      <c r="B270">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
+      <c r="A271" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="205" spans="1:1">
-      <c r="A205" t="s">
+      <c r="B271">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
+      <c r="A272" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="206" spans="1:1">
-      <c r="A206" t="s">
+      <c r="B272">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" t="s">
+        <v>719</v>
+      </c>
+      <c r="B273">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
+      <c r="A274" t="s">
+        <v>721</v>
+      </c>
+      <c r="B274">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
+      <c r="A275" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="207" spans="1:1">
-      <c r="A207" t="s">
+      <c r="B275">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="208" spans="1:1">
-      <c r="A208" t="s">
+      <c r="B276">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" t="s">
+        <v>722</v>
+      </c>
+      <c r="B277">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
+      <c r="A278" t="s">
+        <v>725</v>
+      </c>
+      <c r="B278">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
+      <c r="A279" t="s">
+        <v>727</v>
+      </c>
+      <c r="B279">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="209" spans="1:1">
-      <c r="A209" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
-      <c r="A210" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
-      <c r="A211" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
-      <c r="A212" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
-      <c r="A213" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
-      <c r="A216" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
-      <c r="A217" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
-      <c r="A218" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
-      <c r="A219" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
-      <c r="A220" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
-      <c r="A222" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
-      <c r="A223" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
-      <c r="A224" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
-      <c r="A226" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
-      <c r="A227" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
-      <c r="A228" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
-      <c r="A229" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
-      <c r="A230" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
-      <c r="A231" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
-      <c r="A232" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
-      <c r="A233" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
-      <c r="A234" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
-      <c r="A235" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
-      <c r="A236" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
-      <c r="A237" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
-      <c r="A238" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
-      <c r="A239" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
-      <c r="A241" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
-      <c r="A242" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
-      <c r="A243" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
-      <c r="A244" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
-      <c r="A245" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
-      <c r="A246" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
-      <c r="A247" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
-      <c r="A248" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
-      <c r="A249" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
-      <c r="A250" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
-      <c r="A251" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
-      <c r="A252" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
-      <c r="A253" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
-      <c r="A254" t="s">
+      <c r="B280">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" t="s">
         <v>729</v>
       </c>
+      <c r="B281">
+        <v>963</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N281">
+    <sortCondition ref="A2:A281"/>
+  </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
